--- a/params_BC_3.xlsx
+++ b/params_BC_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E983B47D-C7F8-44E3-8B48-C2168E58DD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2AC2B8-C0F2-4832-8418-30F82E2C3C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
   <si>
     <t>val</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>Calibrated with dispersivity for bromide</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumed value - flow is </t>
   </si>
 </sst>
 </file>
@@ -869,16 +875,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1807,6 +1813,17 @@
         <v>146</v>
       </c>
     </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70">
+        <v>0.6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
